--- a/project/cpdc-collector/src/native/downCase/input/百济-200.xlsx
+++ b/project/cpdc-collector/src/native/downCase/input/百济-200.xlsx
@@ -4574,17 +4574,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4602,8 +4604,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4618,14 +4643,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4640,9 +4665,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4663,11 +4687,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4679,42 +4702,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4745,7 +4745,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4757,7 +4769,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4769,7 +4847,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4781,25 +4877,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4811,121 +4913,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4936,6 +4936,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4954,12 +4969,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4978,7 +5006,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5000,39 +5028,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5042,10 +5042,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5057,130 +5057,130 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5587,8 +5587,8 @@
   <sheetPr/>
   <dimension ref="A1:BM201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT166" workbookViewId="0">
-      <selection activeCell="AY185" sqref="AY185"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="BJ3" sqref="BJ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -32742,7 +32742,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:AN201 AP1:AQ201 AX1:BH201 BJ181:BJ201 BJ180 BJ173:BJ179 BJ172 BJ1:BJ171 AS1:AV201 BL2:BL171 BL173:BL179 BL181:BL201 BL180 BL172" numberStoredAsText="1"/>
+    <ignoredError sqref="BL172 BL180 BL181:BL201 BL173:BL179 BL2:BL171 AS1:AV201 BJ1:BJ171 BJ172 BJ173:BJ179 BJ180 BJ181:BJ201 AX1:BH201 AP1:AQ201 A1:AN201" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
